--- a/ADSDataDirect.Web/Templates/Tracking1.xlsx
+++ b/ADSDataDirect.Web/Templates/Tracking1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NET_PROJECTS\ADSDataDirect\WFP.ICT.Web\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NET_PROJECTS\ADSDataDirect\ADSDataDirect.Web\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
   <si>
     <t>URLS</t>
   </si>
@@ -129,13 +129,16 @@
   </si>
   <si>
     <t>View</t>
+  </si>
+  <si>
+    <t>Data Files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,6 +377,14 @@
       <b/>
       <sz val="9"/>
       <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -715,7 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -887,6 +898,9 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -920,6 +934,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
@@ -947,11 +967,11 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1151,6 +1171,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>274805</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>20472</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="955344" cy="914400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="295277" y="10953750"/>
+          <a:ext cx="914400" cy="955344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1456,8 +1521,8 @@
   </sheetPr>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:J10"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,31 +1613,31 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
       <c r="H8" s="49" t="s">
         <v>12</v>
       </c>
@@ -1582,13 +1647,13 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
       <c r="H9" s="49" t="s">
         <v>13</v>
       </c>
@@ -1598,13 +1663,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
       <c r="H10" s="49" t="s">
         <v>6</v>
       </c>
@@ -1614,18 +1679,18 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
@@ -1712,8 +1777,8 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="3"/>
@@ -1724,8 +1789,8 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="3"/>
@@ -1946,7 +2011,7 @@
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="79" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="26"/>
@@ -1960,7 +2025,7 @@
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="78"/>
+      <c r="A35" s="79"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -2039,11 +2104,13 @@
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="77"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="3"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
@@ -2052,10 +2119,10 @@
       <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="3"/>
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
@@ -2063,11 +2130,11 @@
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+    <row r="43" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="100"/>
+      <c r="B43" s="101"/>
+      <c r="C43" s="101"/>
+      <c r="D43" s="101"/>
       <c r="E43" s="3"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
@@ -2075,11 +2142,11 @@
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+    <row r="44" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A44" s="100"/>
+      <c r="B44" s="101"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101"/>
       <c r="E44" s="3"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -2087,11 +2154,11 @@
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+    <row r="45" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="100"/>
+      <c r="B45" s="101"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
       <c r="E45" s="3"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -2099,11 +2166,11 @@
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+    <row r="46" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="100"/>
+      <c r="B46" s="101"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2426,17 +2493,17 @@
       </c>
     </row>
     <row r="73" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A73" s="86" t="s">
+      <c r="A73" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="97" t="s">
+      <c r="B73" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="97"/>
-      <c r="D73" s="97"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="97"/>
-      <c r="G73" s="97"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="89"/>
+      <c r="G73" s="89"/>
       <c r="H73" s="49" t="s">
         <v>12</v>
       </c>
@@ -2446,13 +2513,13 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A74" s="87"/>
-      <c r="B74" s="98"/>
-      <c r="C74" s="98"/>
-      <c r="D74" s="98"/>
-      <c r="E74" s="98"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="98"/>
+      <c r="A74" s="88"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="90"/>
       <c r="H74" s="49" t="s">
         <v>13</v>
       </c>
@@ -2462,13 +2529,13 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A75" s="87"/>
-      <c r="B75" s="98"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="98"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="98"/>
-      <c r="G75" s="98"/>
+      <c r="A75" s="88"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="90"/>
+      <c r="D75" s="90"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="90"/>
       <c r="H75" s="49" t="s">
         <v>6</v>
       </c>
@@ -2528,13 +2595,13 @@
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="90" t="s">
+      <c r="A80" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="90"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="91"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="93"/>
+      <c r="D80" s="93"/>
+      <c r="E80" s="94"/>
       <c r="F80" s="66" t="s">
         <v>21</v>
       </c>
@@ -2562,11 +2629,11 @@
       <c r="J81" s="63"/>
     </row>
     <row r="82" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="92"/>
-      <c r="B82" s="93"/>
-      <c r="C82" s="93"/>
-      <c r="D82" s="93"/>
-      <c r="E82" s="93"/>
+      <c r="A82" s="95"/>
+      <c r="B82" s="96"/>
+      <c r="C82" s="96"/>
+      <c r="D82" s="96"/>
+      <c r="E82" s="96"/>
       <c r="F82" s="68"/>
       <c r="G82" s="68"/>
       <c r="H82" s="68"/>
@@ -2576,11 +2643,11 @@
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="84"/>
-      <c r="B83" s="85"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
+      <c r="A83" s="85"/>
+      <c r="B83" s="86"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="86"/>
+      <c r="E83" s="86"/>
       <c r="F83" s="61"/>
       <c r="G83" s="61"/>
       <c r="H83" s="61"/>
@@ -2590,11 +2657,11 @@
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="82"/>
-      <c r="B84" s="83"/>
-      <c r="C84" s="83"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
+      <c r="A84" s="83"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="84"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84"/>
       <c r="F84" s="60"/>
       <c r="G84" s="60"/>
       <c r="H84" s="60"/>
@@ -2604,11 +2671,11 @@
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="84"/>
-      <c r="B85" s="85"/>
-      <c r="C85" s="85"/>
-      <c r="D85" s="85"/>
-      <c r="E85" s="85"/>
+      <c r="A85" s="85"/>
+      <c r="B85" s="86"/>
+      <c r="C85" s="86"/>
+      <c r="D85" s="86"/>
+      <c r="E85" s="86"/>
       <c r="F85" s="61"/>
       <c r="G85" s="61"/>
       <c r="H85" s="61"/>
@@ -2618,11 +2685,11 @@
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="82"/>
-      <c r="B86" s="83"/>
-      <c r="C86" s="83"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="83"/>
+      <c r="A86" s="83"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="84"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="84"/>
       <c r="F86" s="60"/>
       <c r="G86" s="60"/>
       <c r="H86" s="60"/>
@@ -2632,11 +2699,11 @@
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="84"/>
-      <c r="B87" s="85"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
+      <c r="A87" s="85"/>
+      <c r="B87" s="86"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="86"/>
+      <c r="E87" s="86"/>
       <c r="F87" s="61"/>
       <c r="G87" s="61"/>
       <c r="H87" s="61"/>
@@ -2646,11 +2713,11 @@
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="82"/>
-      <c r="B88" s="83"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="83"/>
+      <c r="A88" s="83"/>
+      <c r="B88" s="84"/>
+      <c r="C88" s="84"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="84"/>
       <c r="F88" s="60"/>
       <c r="G88" s="60"/>
       <c r="H88" s="60"/>
@@ -2660,11 +2727,11 @@
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="84"/>
-      <c r="B89" s="85"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
+      <c r="A89" s="85"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="86"/>
+      <c r="D89" s="86"/>
+      <c r="E89" s="86"/>
       <c r="F89" s="61"/>
       <c r="G89" s="61"/>
       <c r="H89" s="61"/>
@@ -2674,11 +2741,11 @@
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="82"/>
-      <c r="B90" s="83"/>
-      <c r="C90" s="83"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="83"/>
+      <c r="A90" s="83"/>
+      <c r="B90" s="84"/>
+      <c r="C90" s="84"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="84"/>
       <c r="F90" s="60"/>
       <c r="G90" s="60"/>
       <c r="H90" s="60"/>
@@ -2688,11 +2755,11 @@
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="84"/>
-      <c r="B91" s="85"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
+      <c r="A91" s="85"/>
+      <c r="B91" s="86"/>
+      <c r="C91" s="86"/>
+      <c r="D91" s="86"/>
+      <c r="E91" s="86"/>
       <c r="F91" s="61"/>
       <c r="G91" s="61"/>
       <c r="H91" s="61"/>
@@ -2702,11 +2769,11 @@
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="82"/>
-      <c r="B92" s="83"/>
-      <c r="C92" s="83"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="83"/>
+      <c r="A92" s="83"/>
+      <c r="B92" s="84"/>
+      <c r="C92" s="84"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="84"/>
       <c r="F92" s="60"/>
       <c r="G92" s="60"/>
       <c r="H92" s="60"/>
@@ -2716,11 +2783,11 @@
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="84"/>
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
+      <c r="A93" s="85"/>
+      <c r="B93" s="86"/>
+      <c r="C93" s="86"/>
+      <c r="D93" s="86"/>
+      <c r="E93" s="86"/>
       <c r="F93" s="61"/>
       <c r="G93" s="61"/>
       <c r="H93" s="61"/>
@@ -2730,11 +2797,11 @@
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="82"/>
-      <c r="B94" s="83"/>
-      <c r="C94" s="83"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="83"/>
+      <c r="A94" s="83"/>
+      <c r="B94" s="84"/>
+      <c r="C94" s="84"/>
+      <c r="D94" s="84"/>
+      <c r="E94" s="84"/>
       <c r="F94" s="60"/>
       <c r="G94" s="60"/>
       <c r="H94" s="60"/>
@@ -2744,11 +2811,11 @@
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="94"/>
-      <c r="B95" s="95"/>
-      <c r="C95" s="95"/>
-      <c r="D95" s="95"/>
-      <c r="E95" s="96"/>
+      <c r="A95" s="97"/>
+      <c r="B95" s="98"/>
+      <c r="C95" s="98"/>
+      <c r="D95" s="98"/>
+      <c r="E95" s="99"/>
       <c r="F95" s="61"/>
       <c r="G95" s="61"/>
       <c r="H95" s="61"/>
@@ -2758,11 +2825,11 @@
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="82"/>
-      <c r="B96" s="83"/>
-      <c r="C96" s="83"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="83"/>
+      <c r="A96" s="83"/>
+      <c r="B96" s="84"/>
+      <c r="C96" s="84"/>
+      <c r="D96" s="84"/>
+      <c r="E96" s="84"/>
       <c r="F96" s="60"/>
       <c r="G96" s="60"/>
       <c r="H96" s="60"/>
@@ -2772,11 +2839,11 @@
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="84"/>
-      <c r="B97" s="85"/>
-      <c r="C97" s="85"/>
-      <c r="D97" s="85"/>
-      <c r="E97" s="85"/>
+      <c r="A97" s="85"/>
+      <c r="B97" s="86"/>
+      <c r="C97" s="86"/>
+      <c r="D97" s="86"/>
+      <c r="E97" s="86"/>
       <c r="F97" s="61"/>
       <c r="G97" s="61"/>
       <c r="H97" s="61"/>
@@ -2786,11 +2853,11 @@
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="82"/>
-      <c r="B98" s="83"/>
-      <c r="C98" s="83"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="83"/>
+      <c r="A98" s="83"/>
+      <c r="B98" s="84"/>
+      <c r="C98" s="84"/>
+      <c r="D98" s="84"/>
+      <c r="E98" s="84"/>
       <c r="F98" s="60"/>
       <c r="G98" s="60"/>
       <c r="H98" s="60"/>
@@ -2800,11 +2867,11 @@
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="88"/>
-      <c r="B99" s="89"/>
-      <c r="C99" s="89"/>
-      <c r="D99" s="89"/>
-      <c r="E99" s="89"/>
+      <c r="A99" s="91"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="92"/>
       <c r="F99" s="74"/>
       <c r="G99" s="74"/>
       <c r="H99" s="74"/>
@@ -2814,11 +2881,11 @@
       <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="92"/>
-      <c r="B100" s="93"/>
-      <c r="C100" s="93"/>
-      <c r="D100" s="93"/>
-      <c r="E100" s="93"/>
+      <c r="A100" s="95"/>
+      <c r="B100" s="96"/>
+      <c r="C100" s="96"/>
+      <c r="D100" s="96"/>
+      <c r="E100" s="96"/>
       <c r="F100" s="68"/>
       <c r="G100" s="68"/>
       <c r="H100" s="68"/>
@@ -2828,11 +2895,11 @@
       <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="84"/>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="85"/>
-      <c r="E101" s="85"/>
+      <c r="A101" s="85"/>
+      <c r="B101" s="86"/>
+      <c r="C101" s="86"/>
+      <c r="D101" s="86"/>
+      <c r="E101" s="86"/>
       <c r="F101" s="61"/>
       <c r="G101" s="61"/>
       <c r="H101" s="61"/>
@@ -2842,11 +2909,11 @@
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="82"/>
-      <c r="B102" s="83"/>
-      <c r="C102" s="83"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="83"/>
+      <c r="A102" s="83"/>
+      <c r="B102" s="84"/>
+      <c r="C102" s="84"/>
+      <c r="D102" s="84"/>
+      <c r="E102" s="84"/>
       <c r="F102" s="60"/>
       <c r="G102" s="60"/>
       <c r="H102" s="60"/>
@@ -2856,11 +2923,11 @@
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="84"/>
-      <c r="B103" s="85"/>
-      <c r="C103" s="85"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
+      <c r="A103" s="85"/>
+      <c r="B103" s="86"/>
+      <c r="C103" s="86"/>
+      <c r="D103" s="86"/>
+      <c r="E103" s="86"/>
       <c r="F103" s="61"/>
       <c r="G103" s="61"/>
       <c r="H103" s="61"/>
@@ -2870,11 +2937,11 @@
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="82"/>
-      <c r="B104" s="83"/>
-      <c r="C104" s="83"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="83"/>
+      <c r="A104" s="83"/>
+      <c r="B104" s="84"/>
+      <c r="C104" s="84"/>
+      <c r="D104" s="84"/>
+      <c r="E104" s="84"/>
       <c r="F104" s="60"/>
       <c r="G104" s="60"/>
       <c r="H104" s="60"/>
@@ -2884,11 +2951,11 @@
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="84"/>
-      <c r="B105" s="85"/>
-      <c r="C105" s="85"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="85"/>
+      <c r="A105" s="85"/>
+      <c r="B105" s="86"/>
+      <c r="C105" s="86"/>
+      <c r="D105" s="86"/>
+      <c r="E105" s="86"/>
       <c r="F105" s="61"/>
       <c r="G105" s="61"/>
       <c r="H105" s="61"/>
@@ -2898,11 +2965,11 @@
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="82"/>
-      <c r="B106" s="83"/>
-      <c r="C106" s="83"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
+      <c r="A106" s="83"/>
+      <c r="B106" s="84"/>
+      <c r="C106" s="84"/>
+      <c r="D106" s="84"/>
+      <c r="E106" s="84"/>
       <c r="F106" s="60"/>
       <c r="G106" s="60"/>
       <c r="H106" s="60"/>
@@ -2912,11 +2979,11 @@
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="84"/>
-      <c r="B107" s="85"/>
-      <c r="C107" s="85"/>
-      <c r="D107" s="85"/>
-      <c r="E107" s="85"/>
+      <c r="A107" s="85"/>
+      <c r="B107" s="86"/>
+      <c r="C107" s="86"/>
+      <c r="D107" s="86"/>
+      <c r="E107" s="86"/>
       <c r="F107" s="61"/>
       <c r="G107" s="61"/>
       <c r="H107" s="61"/>
@@ -2926,11 +2993,11 @@
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="82"/>
-      <c r="B108" s="83"/>
-      <c r="C108" s="83"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="83"/>
+      <c r="A108" s="83"/>
+      <c r="B108" s="84"/>
+      <c r="C108" s="84"/>
+      <c r="D108" s="84"/>
+      <c r="E108" s="84"/>
       <c r="F108" s="60"/>
       <c r="G108" s="60"/>
       <c r="H108" s="60"/>
@@ -2940,11 +3007,11 @@
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="84"/>
-      <c r="B109" s="85"/>
-      <c r="C109" s="85"/>
-      <c r="D109" s="85"/>
-      <c r="E109" s="85"/>
+      <c r="A109" s="85"/>
+      <c r="B109" s="86"/>
+      <c r="C109" s="86"/>
+      <c r="D109" s="86"/>
+      <c r="E109" s="86"/>
       <c r="F109" s="61"/>
       <c r="G109" s="61"/>
       <c r="H109" s="61"/>
@@ -2954,11 +3021,11 @@
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="82"/>
-      <c r="B110" s="83"/>
-      <c r="C110" s="83"/>
-      <c r="D110" s="83"/>
-      <c r="E110" s="83"/>
+      <c r="A110" s="83"/>
+      <c r="B110" s="84"/>
+      <c r="C110" s="84"/>
+      <c r="D110" s="84"/>
+      <c r="E110" s="84"/>
       <c r="F110" s="60"/>
       <c r="G110" s="60"/>
       <c r="H110" s="60"/>
@@ -2968,11 +3035,11 @@
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="84"/>
-      <c r="B111" s="85"/>
-      <c r="C111" s="85"/>
-      <c r="D111" s="85"/>
-      <c r="E111" s="85"/>
+      <c r="A111" s="85"/>
+      <c r="B111" s="86"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="86"/>
+      <c r="E111" s="86"/>
       <c r="F111" s="61"/>
       <c r="G111" s="61"/>
       <c r="H111" s="61"/>
@@ -2982,11 +3049,11 @@
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="82"/>
-      <c r="B112" s="83"/>
-      <c r="C112" s="83"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83"/>
+      <c r="A112" s="83"/>
+      <c r="B112" s="84"/>
+      <c r="C112" s="84"/>
+      <c r="D112" s="84"/>
+      <c r="E112" s="84"/>
       <c r="F112" s="60"/>
       <c r="G112" s="60"/>
       <c r="H112" s="60"/>
@@ -2996,11 +3063,11 @@
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="94"/>
-      <c r="B113" s="95"/>
-      <c r="C113" s="95"/>
-      <c r="D113" s="95"/>
-      <c r="E113" s="96"/>
+      <c r="A113" s="97"/>
+      <c r="B113" s="98"/>
+      <c r="C113" s="98"/>
+      <c r="D113" s="98"/>
+      <c r="E113" s="99"/>
       <c r="F113" s="61"/>
       <c r="G113" s="61"/>
       <c r="H113" s="61"/>
@@ -3010,11 +3077,11 @@
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="82"/>
-      <c r="B114" s="83"/>
-      <c r="C114" s="83"/>
-      <c r="D114" s="83"/>
-      <c r="E114" s="83"/>
+      <c r="A114" s="83"/>
+      <c r="B114" s="84"/>
+      <c r="C114" s="84"/>
+      <c r="D114" s="84"/>
+      <c r="E114" s="84"/>
       <c r="F114" s="60"/>
       <c r="G114" s="60"/>
       <c r="H114" s="60"/>
@@ -3024,11 +3091,11 @@
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="84"/>
-      <c r="B115" s="85"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="85"/>
-      <c r="E115" s="85"/>
+      <c r="A115" s="85"/>
+      <c r="B115" s="86"/>
+      <c r="C115" s="86"/>
+      <c r="D115" s="86"/>
+      <c r="E115" s="86"/>
       <c r="F115" s="61"/>
       <c r="G115" s="61"/>
       <c r="H115" s="61"/>
@@ -3038,11 +3105,11 @@
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="82"/>
-      <c r="B116" s="83"/>
-      <c r="C116" s="83"/>
-      <c r="D116" s="83"/>
-      <c r="E116" s="83"/>
+      <c r="A116" s="83"/>
+      <c r="B116" s="84"/>
+      <c r="C116" s="84"/>
+      <c r="D116" s="84"/>
+      <c r="E116" s="84"/>
       <c r="F116" s="60"/>
       <c r="G116" s="60"/>
       <c r="H116" s="60"/>
@@ -3052,11 +3119,11 @@
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="88"/>
-      <c r="B117" s="89"/>
-      <c r="C117" s="89"/>
-      <c r="D117" s="89"/>
-      <c r="E117" s="89"/>
+      <c r="A117" s="91"/>
+      <c r="B117" s="92"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="92"/>
       <c r="F117" s="74"/>
       <c r="G117" s="74"/>
       <c r="H117" s="74"/>
@@ -3066,7 +3133,7 @@
       <c r="J117" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="51">
     <mergeCell ref="A115:E115"/>
     <mergeCell ref="A116:E116"/>
     <mergeCell ref="A117:E117"/>
@@ -3108,6 +3175,11 @@
     <mergeCell ref="B8:G10"/>
     <mergeCell ref="A73:A75"/>
     <mergeCell ref="B73:G75"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A34:A35"/>
     <mergeCell ref="A17:B17"/>

--- a/ADSDataDirect.Web/Templates/Tracking1.xlsx
+++ b/ADSDataDirect.Web/Templates/Tracking1.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NET_PROJECTS\ADSDataDirect\ADSDataDirect.Web\Templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12975"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12972"/>
   </bookViews>
   <sheets>
     <sheet name="TrackingReport" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -137,8 +132,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -901,12 +896,69 @@
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -915,63 +967,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1039,7 +1034,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DEF1A45-3E5D-462A-91AF-E22A9FC6595F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DEF1A45-3E5D-462A-91AF-E22A9FC6595F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1051,7 +1046,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1089,7 +1084,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5E130FC-7FBD-4FEF-956C-6BF505EDB0A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E130FC-7FBD-4FEF-956C-6BF505EDB0A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1101,7 +1096,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1139,7 +1134,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1151,7 +1146,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1184,7 +1179,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1193,10 +1188,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1262,7 +1257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1314,7 +1309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1508,38 +1503,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:A42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="7"/>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1551,7 +1546,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -1563,7 +1558,7 @@
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -1575,7 +1570,7 @@
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -1587,7 +1582,7 @@
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1599,7 +1594,7 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" spans="1:10" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:10" ht="40.799999999999997">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1612,32 +1607,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="16" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A7" s="78" t="s">
+    <row r="7" spans="1:10" s="16" customFormat="1" ht="21.9" customHeight="1">
+      <c r="A7" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A8" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
       <c r="H8" s="49" t="s">
         <v>12</v>
       </c>
@@ -1646,14 +1641,14 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
+    <row r="9" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A9" s="93"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="95"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="95"/>
       <c r="H9" s="49" t="s">
         <v>13</v>
       </c>
@@ -1662,14 +1657,14 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
+    <row r="10" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A10" s="93"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
       <c r="H10" s="49" t="s">
         <v>6</v>
       </c>
@@ -1678,21 +1673,21 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="81" t="s">
+    <row r="11" spans="1:10" ht="25.8">
+      <c r="A11" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-    </row>
-    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1704,7 +1699,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="35.1" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" ht="35.1" customHeight="1">
       <c r="A13" s="48" t="s">
         <v>15</v>
       </c>
@@ -1720,7 +1715,7 @@
       <c r="I13" s="34"/>
       <c r="J13" s="34"/>
     </row>
-    <row r="14" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="20"/>
       <c r="B14" s="21" t="s">
         <v>16</v>
@@ -1740,7 +1735,7 @@
       <c r="I14" s="38"/>
       <c r="J14" s="46"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
         <v>17</v>
@@ -1760,7 +1755,7 @@
       <c r="I15" s="41"/>
       <c r="J15" s="46"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="24"/>
       <c r="B16" s="25" t="s">
         <v>4</v>
@@ -1776,9 +1771,9 @@
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
+    <row r="17" spans="1:10" ht="15.6">
+      <c r="A17" s="99"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="3"/>
@@ -1788,9 +1783,9 @@
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="99"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="3"/>
@@ -1800,7 +1795,7 @@
       <c r="I18" s="19"/>
       <c r="J18" s="44"/>
     </row>
-    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" ht="24.9" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -1812,7 +1807,7 @@
       <c r="I19" s="19"/>
       <c r="J19" s="44"/>
     </row>
-    <row r="20" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:10" ht="31.2">
       <c r="A20" s="45" t="s">
         <v>18</v>
       </c>
@@ -1826,7 +1821,7 @@
       <c r="I20" s="19"/>
       <c r="J20" s="44"/>
     </row>
-    <row r="21" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" ht="31.2">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="53"/>
@@ -1838,7 +1833,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
     </row>
-    <row r="22" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:10" ht="31.2">
       <c r="A22" s="19"/>
       <c r="B22" s="27" t="s">
         <v>19</v>
@@ -1854,7 +1849,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="44"/>
     </row>
-    <row r="23" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:10" ht="31.2">
       <c r="A23" s="19"/>
       <c r="B23" s="21" t="s">
         <v>20</v>
@@ -1870,7 +1865,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="44"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="19"/>
       <c r="B24" s="25"/>
       <c r="C24" s="23"/>
@@ -1882,7 +1877,7 @@
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -1894,7 +1889,7 @@
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="29">
         <v>2619</v>
       </c>
@@ -1912,7 +1907,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="31" t="s">
         <v>21</v>
       </c>
@@ -1930,7 +1925,7 @@
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="24.9" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1942,7 +1937,7 @@
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
     </row>
-    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="54">
         <v>27</v>
       </c>
@@ -1958,7 +1953,7 @@
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
     </row>
-    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="56" t="s">
         <v>32</v>
       </c>
@@ -1974,7 +1969,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
     </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1986,7 +1981,7 @@
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1998,7 +1993,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="3"/>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
@@ -2010,8 +2005,8 @@
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="79" t="s">
+    <row r="34" spans="1:10" ht="15.6">
+      <c r="A34" s="96" t="s">
         <v>24</v>
       </c>
       <c r="B34" s="26"/>
@@ -2024,8 +2019,8 @@
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
+    <row r="35" spans="1:10">
+      <c r="A35" s="96"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -2036,7 +2031,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
     </row>
-    <row r="36" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:10" ht="31.2">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="53"/>
@@ -2048,7 +2043,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
     </row>
-    <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" ht="21">
       <c r="A37" s="19"/>
       <c r="B37" s="27" t="s">
         <v>25</v>
@@ -2064,7 +2059,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
     </row>
-    <row r="38" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" ht="21">
       <c r="A38" s="19"/>
       <c r="B38" s="27" t="s">
         <v>26</v>
@@ -2080,7 +2075,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="19"/>
       <c r="B39" s="25"/>
       <c r="C39" s="23"/>
@@ -2092,7 +2087,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2104,8 +2099,8 @@
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="79" t="s">
+    <row r="41" spans="1:10" ht="15.6">
+      <c r="A41" s="96" t="s">
         <v>35</v>
       </c>
       <c r="B41" s="77"/>
@@ -2118,8 +2113,8 @@
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
+    <row r="42" spans="1:10">
+      <c r="A42" s="96"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -2130,11 +2125,11 @@
       <c r="I42" s="19"/>
       <c r="J42" s="19"/>
     </row>
-    <row r="43" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="100"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
+    <row r="43" spans="1:10" ht="31.5" customHeight="1">
+      <c r="A43" s="78"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
       <c r="E43" s="3"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
@@ -2142,11 +2137,11 @@
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
     </row>
-    <row r="44" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A44" s="100"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
+    <row r="44" spans="1:10" ht="21">
+      <c r="A44" s="78"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
       <c r="E44" s="3"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -2154,11 +2149,11 @@
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
     </row>
-    <row r="45" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A45" s="100"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
+    <row r="45" spans="1:10" ht="21">
+      <c r="A45" s="78"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
       <c r="E45" s="3"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -2166,11 +2161,11 @@
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
     </row>
-    <row r="46" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A46" s="100"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
+    <row r="46" spans="1:10" ht="21">
+      <c r="A46" s="78"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2178,7 +2173,7 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2190,7 +2185,7 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2202,7 +2197,7 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2214,7 +2209,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2226,7 +2221,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="58" t="s">
         <v>27</v>
       </c>
@@ -2240,7 +2235,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2252,7 +2247,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2264,7 +2259,7 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2276,7 +2271,7 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2288,7 +2283,7 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2300,7 +2295,7 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2312,7 +2307,7 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2324,7 +2319,7 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2336,7 +2331,7 @@
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2348,7 +2343,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2360,7 +2355,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2372,7 +2367,7 @@
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2384,7 +2379,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2396,7 +2391,7 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2408,7 +2403,7 @@
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2420,7 +2415,7 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2432,7 +2427,7 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2444,7 +2439,7 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2456,7 +2451,7 @@
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2468,7 +2463,7 @@
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2480,7 +2475,7 @@
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" spans="1:10" ht="42" x14ac:dyDescent="0.65">
+    <row r="72" spans="1:10" ht="40.799999999999997">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2492,18 +2487,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A73" s="87" t="s">
+    <row r="73" spans="1:10" ht="21">
+      <c r="A73" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="89" t="s">
+      <c r="B73" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="89"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="89"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="94"/>
+      <c r="E73" s="94"/>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94"/>
       <c r="H73" s="49" t="s">
         <v>12</v>
       </c>
@@ -2512,14 +2507,14 @@
         <v>2665</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A74" s="88"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="90"/>
-      <c r="D74" s="90"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="90"/>
+    <row r="74" spans="1:10" ht="21">
+      <c r="A74" s="93"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="95"/>
+      <c r="E74" s="95"/>
+      <c r="F74" s="95"/>
+      <c r="G74" s="95"/>
       <c r="H74" s="49" t="s">
         <v>13</v>
       </c>
@@ -2528,14 +2523,14 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A75" s="88"/>
-      <c r="B75" s="90"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="90"/>
-      <c r="F75" s="90"/>
-      <c r="G75" s="90"/>
+    <row r="75" spans="1:10" ht="21">
+      <c r="A75" s="93"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="95"/>
+      <c r="E75" s="95"/>
+      <c r="F75" s="95"/>
+      <c r="G75" s="95"/>
       <c r="H75" s="49" t="s">
         <v>6</v>
       </c>
@@ -2544,7 +2539,7 @@
         <v>42901</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="15" thickBot="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2556,7 +2551,7 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="15" customHeight="1">
       <c r="A77" s="10" t="s">
         <v>28</v>
       </c>
@@ -2570,7 +2565,7 @@
       <c r="I77" s="11"/>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" thickBot="1">
       <c r="A78" s="13"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -2582,7 +2577,7 @@
       <c r="I78" s="14"/>
       <c r="J78" s="15"/>
     </row>
-    <row r="79" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="23.4">
       <c r="A79" s="8"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -2594,14 +2589,14 @@
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
     </row>
-    <row r="80" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A80" s="93" t="s">
+    <row r="80" spans="1:10" ht="23.4">
+      <c r="A80" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="93"/>
-      <c r="C80" s="93"/>
-      <c r="D80" s="93"/>
-      <c r="E80" s="94"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="90"/>
+      <c r="D80" s="90"/>
+      <c r="E80" s="91"/>
       <c r="F80" s="66" t="s">
         <v>21</v>
       </c>
@@ -2616,7 +2611,7 @@
       </c>
       <c r="J80" s="65"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="62"/>
       <c r="B81" s="62"/>
       <c r="C81" s="62"/>
@@ -2628,12 +2623,12 @@
       <c r="I81" s="62"/>
       <c r="J81" s="63"/>
     </row>
-    <row r="82" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="95"/>
-      <c r="B82" s="96"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="96"/>
-      <c r="E82" s="96"/>
+    <row r="82" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A82" s="88"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="89"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="89"/>
       <c r="F82" s="68"/>
       <c r="G82" s="68"/>
       <c r="H82" s="68"/>
@@ -2642,12 +2637,12 @@
       </c>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="85"/>
-      <c r="B83" s="86"/>
-      <c r="C83" s="86"/>
-      <c r="D83" s="86"/>
-      <c r="E83" s="86"/>
+    <row r="83" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A83" s="79"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="80"/>
       <c r="F83" s="61"/>
       <c r="G83" s="61"/>
       <c r="H83" s="61"/>
@@ -2656,12 +2651,12 @@
       </c>
       <c r="J83" s="3"/>
     </row>
-    <row r="84" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="83"/>
-      <c r="B84" s="84"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="84"/>
-      <c r="E84" s="84"/>
+    <row r="84" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A84" s="81"/>
+      <c r="B84" s="82"/>
+      <c r="C84" s="82"/>
+      <c r="D84" s="82"/>
+      <c r="E84" s="82"/>
       <c r="F84" s="60"/>
       <c r="G84" s="60"/>
       <c r="H84" s="60"/>
@@ -2670,12 +2665,12 @@
       </c>
       <c r="J84" s="3"/>
     </row>
-    <row r="85" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="85"/>
-      <c r="B85" s="86"/>
-      <c r="C85" s="86"/>
-      <c r="D85" s="86"/>
-      <c r="E85" s="86"/>
+    <row r="85" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A85" s="79"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="80"/>
       <c r="F85" s="61"/>
       <c r="G85" s="61"/>
       <c r="H85" s="61"/>
@@ -2684,12 +2679,12 @@
       </c>
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="83"/>
-      <c r="B86" s="84"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="84"/>
-      <c r="E86" s="84"/>
+    <row r="86" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A86" s="81"/>
+      <c r="B86" s="82"/>
+      <c r="C86" s="82"/>
+      <c r="D86" s="82"/>
+      <c r="E86" s="82"/>
       <c r="F86" s="60"/>
       <c r="G86" s="60"/>
       <c r="H86" s="60"/>
@@ -2698,12 +2693,12 @@
       </c>
       <c r="J86" s="3"/>
     </row>
-    <row r="87" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="85"/>
-      <c r="B87" s="86"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="86"/>
+    <row r="87" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A87" s="79"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
       <c r="F87" s="61"/>
       <c r="G87" s="61"/>
       <c r="H87" s="61"/>
@@ -2712,12 +2707,12 @@
       </c>
       <c r="J87" s="3"/>
     </row>
-    <row r="88" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="83"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="84"/>
+    <row r="88" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A88" s="81"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
       <c r="F88" s="60"/>
       <c r="G88" s="60"/>
       <c r="H88" s="60"/>
@@ -2726,12 +2721,12 @@
       </c>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="85"/>
-      <c r="B89" s="86"/>
-      <c r="C89" s="86"/>
-      <c r="D89" s="86"/>
-      <c r="E89" s="86"/>
+    <row r="89" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A89" s="79"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="80"/>
+      <c r="E89" s="80"/>
       <c r="F89" s="61"/>
       <c r="G89" s="61"/>
       <c r="H89" s="61"/>
@@ -2740,12 +2735,12 @@
       </c>
       <c r="J89" s="3"/>
     </row>
-    <row r="90" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="83"/>
-      <c r="B90" s="84"/>
-      <c r="C90" s="84"/>
-      <c r="D90" s="84"/>
-      <c r="E90" s="84"/>
+    <row r="90" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A90" s="81"/>
+      <c r="B90" s="82"/>
+      <c r="C90" s="82"/>
+      <c r="D90" s="82"/>
+      <c r="E90" s="82"/>
       <c r="F90" s="60"/>
       <c r="G90" s="60"/>
       <c r="H90" s="60"/>
@@ -2754,12 +2749,12 @@
       </c>
       <c r="J90" s="3"/>
     </row>
-    <row r="91" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="85"/>
-      <c r="B91" s="86"/>
-      <c r="C91" s="86"/>
-      <c r="D91" s="86"/>
-      <c r="E91" s="86"/>
+    <row r="91" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A91" s="79"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="80"/>
+      <c r="E91" s="80"/>
       <c r="F91" s="61"/>
       <c r="G91" s="61"/>
       <c r="H91" s="61"/>
@@ -2768,12 +2763,12 @@
       </c>
       <c r="J91" s="3"/>
     </row>
-    <row r="92" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="83"/>
-      <c r="B92" s="84"/>
-      <c r="C92" s="84"/>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
+    <row r="92" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A92" s="81"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="82"/>
+      <c r="D92" s="82"/>
+      <c r="E92" s="82"/>
       <c r="F92" s="60"/>
       <c r="G92" s="60"/>
       <c r="H92" s="60"/>
@@ -2782,12 +2777,12 @@
       </c>
       <c r="J92" s="3"/>
     </row>
-    <row r="93" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="85"/>
-      <c r="B93" s="86"/>
-      <c r="C93" s="86"/>
-      <c r="D93" s="86"/>
-      <c r="E93" s="86"/>
+    <row r="93" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A93" s="79"/>
+      <c r="B93" s="80"/>
+      <c r="C93" s="80"/>
+      <c r="D93" s="80"/>
+      <c r="E93" s="80"/>
       <c r="F93" s="61"/>
       <c r="G93" s="61"/>
       <c r="H93" s="61"/>
@@ -2796,12 +2791,12 @@
       </c>
       <c r="J93" s="3"/>
     </row>
-    <row r="94" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="83"/>
-      <c r="B94" s="84"/>
-      <c r="C94" s="84"/>
-      <c r="D94" s="84"/>
-      <c r="E94" s="84"/>
+    <row r="94" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A94" s="81"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="82"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="82"/>
       <c r="F94" s="60"/>
       <c r="G94" s="60"/>
       <c r="H94" s="60"/>
@@ -2810,12 +2805,12 @@
       </c>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="97"/>
-      <c r="B95" s="98"/>
-      <c r="C95" s="98"/>
-      <c r="D95" s="98"/>
-      <c r="E95" s="99"/>
+    <row r="95" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A95" s="85"/>
+      <c r="B95" s="86"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="87"/>
       <c r="F95" s="61"/>
       <c r="G95" s="61"/>
       <c r="H95" s="61"/>
@@ -2824,12 +2819,12 @@
       </c>
       <c r="J95" s="3"/>
     </row>
-    <row r="96" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="83"/>
-      <c r="B96" s="84"/>
-      <c r="C96" s="84"/>
-      <c r="D96" s="84"/>
-      <c r="E96" s="84"/>
+    <row r="96" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A96" s="81"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
       <c r="F96" s="60"/>
       <c r="G96" s="60"/>
       <c r="H96" s="60"/>
@@ -2838,12 +2833,12 @@
       </c>
       <c r="J96" s="3"/>
     </row>
-    <row r="97" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="85"/>
-      <c r="B97" s="86"/>
-      <c r="C97" s="86"/>
-      <c r="D97" s="86"/>
-      <c r="E97" s="86"/>
+    <row r="97" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A97" s="79"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="80"/>
+      <c r="D97" s="80"/>
+      <c r="E97" s="80"/>
       <c r="F97" s="61"/>
       <c r="G97" s="61"/>
       <c r="H97" s="61"/>
@@ -2852,12 +2847,12 @@
       </c>
       <c r="J97" s="3"/>
     </row>
-    <row r="98" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="83"/>
-      <c r="B98" s="84"/>
-      <c r="C98" s="84"/>
-      <c r="D98" s="84"/>
-      <c r="E98" s="84"/>
+    <row r="98" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A98" s="81"/>
+      <c r="B98" s="82"/>
+      <c r="C98" s="82"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="82"/>
       <c r="F98" s="60"/>
       <c r="G98" s="60"/>
       <c r="H98" s="60"/>
@@ -2866,12 +2861,12 @@
       </c>
       <c r="J98" s="3"/>
     </row>
-    <row r="99" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="91"/>
-      <c r="B99" s="92"/>
-      <c r="C99" s="92"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="92"/>
+    <row r="99" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A99" s="83"/>
+      <c r="B99" s="84"/>
+      <c r="C99" s="84"/>
+      <c r="D99" s="84"/>
+      <c r="E99" s="84"/>
       <c r="F99" s="74"/>
       <c r="G99" s="74"/>
       <c r="H99" s="74"/>
@@ -2880,12 +2875,12 @@
       </c>
       <c r="J99" s="3"/>
     </row>
-    <row r="100" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="95"/>
-      <c r="B100" s="96"/>
-      <c r="C100" s="96"/>
-      <c r="D100" s="96"/>
-      <c r="E100" s="96"/>
+    <row r="100" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A100" s="88"/>
+      <c r="B100" s="89"/>
+      <c r="C100" s="89"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="89"/>
       <c r="F100" s="68"/>
       <c r="G100" s="68"/>
       <c r="H100" s="68"/>
@@ -2894,12 +2889,12 @@
       </c>
       <c r="J100" s="3"/>
     </row>
-    <row r="101" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="85"/>
-      <c r="B101" s="86"/>
-      <c r="C101" s="86"/>
-      <c r="D101" s="86"/>
-      <c r="E101" s="86"/>
+    <row r="101" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A101" s="79"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="80"/>
+      <c r="D101" s="80"/>
+      <c r="E101" s="80"/>
       <c r="F101" s="61"/>
       <c r="G101" s="61"/>
       <c r="H101" s="61"/>
@@ -2908,12 +2903,12 @@
       </c>
       <c r="J101" s="3"/>
     </row>
-    <row r="102" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="83"/>
-      <c r="B102" s="84"/>
-      <c r="C102" s="84"/>
-      <c r="D102" s="84"/>
-      <c r="E102" s="84"/>
+    <row r="102" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A102" s="81"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="82"/>
+      <c r="D102" s="82"/>
+      <c r="E102" s="82"/>
       <c r="F102" s="60"/>
       <c r="G102" s="60"/>
       <c r="H102" s="60"/>
@@ -2922,12 +2917,12 @@
       </c>
       <c r="J102" s="3"/>
     </row>
-    <row r="103" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="85"/>
-      <c r="B103" s="86"/>
-      <c r="C103" s="86"/>
-      <c r="D103" s="86"/>
-      <c r="E103" s="86"/>
+    <row r="103" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A103" s="79"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="80"/>
+      <c r="E103" s="80"/>
       <c r="F103" s="61"/>
       <c r="G103" s="61"/>
       <c r="H103" s="61"/>
@@ -2936,12 +2931,12 @@
       </c>
       <c r="J103" s="3"/>
     </row>
-    <row r="104" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="83"/>
-      <c r="B104" s="84"/>
-      <c r="C104" s="84"/>
-      <c r="D104" s="84"/>
-      <c r="E104" s="84"/>
+    <row r="104" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A104" s="81"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
       <c r="F104" s="60"/>
       <c r="G104" s="60"/>
       <c r="H104" s="60"/>
@@ -2950,12 +2945,12 @@
       </c>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="85"/>
-      <c r="B105" s="86"/>
-      <c r="C105" s="86"/>
-      <c r="D105" s="86"/>
-      <c r="E105" s="86"/>
+    <row r="105" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A105" s="79"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="80"/>
+      <c r="E105" s="80"/>
       <c r="F105" s="61"/>
       <c r="G105" s="61"/>
       <c r="H105" s="61"/>
@@ -2964,12 +2959,12 @@
       </c>
       <c r="J105" s="3"/>
     </row>
-    <row r="106" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="83"/>
-      <c r="B106" s="84"/>
-      <c r="C106" s="84"/>
-      <c r="D106" s="84"/>
-      <c r="E106" s="84"/>
+    <row r="106" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A106" s="81"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="82"/>
+      <c r="D106" s="82"/>
+      <c r="E106" s="82"/>
       <c r="F106" s="60"/>
       <c r="G106" s="60"/>
       <c r="H106" s="60"/>
@@ -2978,12 +2973,12 @@
       </c>
       <c r="J106" s="3"/>
     </row>
-    <row r="107" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="85"/>
-      <c r="B107" s="86"/>
-      <c r="C107" s="86"/>
-      <c r="D107" s="86"/>
-      <c r="E107" s="86"/>
+    <row r="107" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A107" s="79"/>
+      <c r="B107" s="80"/>
+      <c r="C107" s="80"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="80"/>
       <c r="F107" s="61"/>
       <c r="G107" s="61"/>
       <c r="H107" s="61"/>
@@ -2992,12 +2987,12 @@
       </c>
       <c r="J107" s="3"/>
     </row>
-    <row r="108" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="83"/>
-      <c r="B108" s="84"/>
-      <c r="C108" s="84"/>
-      <c r="D108" s="84"/>
-      <c r="E108" s="84"/>
+    <row r="108" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A108" s="81"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="82"/>
+      <c r="E108" s="82"/>
       <c r="F108" s="60"/>
       <c r="G108" s="60"/>
       <c r="H108" s="60"/>
@@ -3006,12 +3001,12 @@
       </c>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="85"/>
-      <c r="B109" s="86"/>
-      <c r="C109" s="86"/>
-      <c r="D109" s="86"/>
-      <c r="E109" s="86"/>
+    <row r="109" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A109" s="79"/>
+      <c r="B109" s="80"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="80"/>
       <c r="F109" s="61"/>
       <c r="G109" s="61"/>
       <c r="H109" s="61"/>
@@ -3020,12 +3015,12 @@
       </c>
       <c r="J109" s="3"/>
     </row>
-    <row r="110" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="83"/>
-      <c r="B110" s="84"/>
-      <c r="C110" s="84"/>
-      <c r="D110" s="84"/>
-      <c r="E110" s="84"/>
+    <row r="110" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A110" s="81"/>
+      <c r="B110" s="82"/>
+      <c r="C110" s="82"/>
+      <c r="D110" s="82"/>
+      <c r="E110" s="82"/>
       <c r="F110" s="60"/>
       <c r="G110" s="60"/>
       <c r="H110" s="60"/>
@@ -3034,12 +3029,12 @@
       </c>
       <c r="J110" s="3"/>
     </row>
-    <row r="111" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="85"/>
-      <c r="B111" s="86"/>
-      <c r="C111" s="86"/>
-      <c r="D111" s="86"/>
-      <c r="E111" s="86"/>
+    <row r="111" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A111" s="79"/>
+      <c r="B111" s="80"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="80"/>
+      <c r="E111" s="80"/>
       <c r="F111" s="61"/>
       <c r="G111" s="61"/>
       <c r="H111" s="61"/>
@@ -3048,12 +3043,12 @@
       </c>
       <c r="J111" s="3"/>
     </row>
-    <row r="112" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="83"/>
-      <c r="B112" s="84"/>
-      <c r="C112" s="84"/>
-      <c r="D112" s="84"/>
-      <c r="E112" s="84"/>
+    <row r="112" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A112" s="81"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
       <c r="F112" s="60"/>
       <c r="G112" s="60"/>
       <c r="H112" s="60"/>
@@ -3062,12 +3057,12 @@
       </c>
       <c r="J112" s="3"/>
     </row>
-    <row r="113" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="97"/>
-      <c r="B113" s="98"/>
-      <c r="C113" s="98"/>
-      <c r="D113" s="98"/>
-      <c r="E113" s="99"/>
+    <row r="113" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A113" s="85"/>
+      <c r="B113" s="86"/>
+      <c r="C113" s="86"/>
+      <c r="D113" s="86"/>
+      <c r="E113" s="87"/>
       <c r="F113" s="61"/>
       <c r="G113" s="61"/>
       <c r="H113" s="61"/>
@@ -3076,12 +3071,12 @@
       </c>
       <c r="J113" s="3"/>
     </row>
-    <row r="114" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="83"/>
-      <c r="B114" s="84"/>
-      <c r="C114" s="84"/>
-      <c r="D114" s="84"/>
-      <c r="E114" s="84"/>
+    <row r="114" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A114" s="81"/>
+      <c r="B114" s="82"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="82"/>
+      <c r="E114" s="82"/>
       <c r="F114" s="60"/>
       <c r="G114" s="60"/>
       <c r="H114" s="60"/>
@@ -3090,12 +3085,12 @@
       </c>
       <c r="J114" s="3"/>
     </row>
-    <row r="115" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="85"/>
-      <c r="B115" s="86"/>
-      <c r="C115" s="86"/>
-      <c r="D115" s="86"/>
-      <c r="E115" s="86"/>
+    <row r="115" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A115" s="79"/>
+      <c r="B115" s="80"/>
+      <c r="C115" s="80"/>
+      <c r="D115" s="80"/>
+      <c r="E115" s="80"/>
       <c r="F115" s="61"/>
       <c r="G115" s="61"/>
       <c r="H115" s="61"/>
@@ -3104,12 +3099,12 @@
       </c>
       <c r="J115" s="3"/>
     </row>
-    <row r="116" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="83"/>
-      <c r="B116" s="84"/>
-      <c r="C116" s="84"/>
-      <c r="D116" s="84"/>
-      <c r="E116" s="84"/>
+    <row r="116" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A116" s="81"/>
+      <c r="B116" s="82"/>
+      <c r="C116" s="82"/>
+      <c r="D116" s="82"/>
+      <c r="E116" s="82"/>
       <c r="F116" s="60"/>
       <c r="G116" s="60"/>
       <c r="H116" s="60"/>
@@ -3118,12 +3113,12 @@
       </c>
       <c r="J116" s="3"/>
     </row>
-    <row r="117" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="91"/>
-      <c r="B117" s="92"/>
-      <c r="C117" s="92"/>
-      <c r="D117" s="92"/>
-      <c r="E117" s="92"/>
+    <row r="117" spans="1:10" ht="50.1" customHeight="1">
+      <c r="A117" s="83"/>
+      <c r="B117" s="84"/>
+      <c r="C117" s="84"/>
+      <c r="D117" s="84"/>
+      <c r="E117" s="84"/>
       <c r="F117" s="74"/>
       <c r="G117" s="74"/>
       <c r="H117" s="74"/>
@@ -3134,24 +3129,23 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:G75"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A98:E98"/>
     <mergeCell ref="A99:E99"/>
@@ -3168,23 +3162,24 @@
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A91:E91"/>
     <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:G75"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/ADSDataDirect.Web/Templates/Tracking1.xlsx
+++ b/ADSDataDirect.Web/Templates/Tracking1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>URLS</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Delivered</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kia of Tallahasse </t>
   </si>
   <si>
@@ -67,9 +64,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Send Performance</t>
-  </si>
-  <si>
-    <t>Delivery Rate</t>
   </si>
   <si>
     <t>Deployed</t>
@@ -899,17 +893,47 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
@@ -917,6 +941,18 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
@@ -925,48 +961,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1034,7 +1028,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DEF1A45-3E5D-462A-91AF-E22A9FC6595F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DEF1A45-3E5D-462A-91AF-E22A9FC6595F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1046,7 +1040,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1084,7 +1078,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E130FC-7FBD-4FEF-956C-6BF505EDB0A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5E130FC-7FBD-4FEF-956C-6BF505EDB0A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1096,7 +1090,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1134,7 +1128,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1146,7 +1140,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1179,7 +1173,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1191,7 +1185,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1503,7 +1497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1604,37 +1598,37 @@
       <c r="G6" s="57"/>
       <c r="I6" s="7"/>
       <c r="J6" s="76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="16" customFormat="1" ht="21.9" customHeight="1">
+      <c r="A7" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A8" s="88" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="16" customFormat="1" ht="21.9" customHeight="1">
-      <c r="A7" s="98" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="92" t="s">
+      <c r="B8" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="49" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="49" t="s">
-        <v>12</v>
       </c>
       <c r="I8" s="50"/>
       <c r="J8" s="51">
@@ -1642,15 +1636,15 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A9" s="93"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="95"/>
-      <c r="F9" s="95"/>
-      <c r="G9" s="95"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="91"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
       <c r="H9" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="50"/>
       <c r="J9" s="52">
@@ -1658,15 +1652,15 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A10" s="93"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="52">
@@ -1674,18 +1668,18 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.8">
-      <c r="A11" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
+      <c r="A11" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1"/>
@@ -1701,14 +1695,14 @@
     </row>
     <row r="13" spans="1:10" ht="35.1" customHeight="1">
       <c r="A13" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
       <c r="E13" s="3"/>
       <c r="F13" s="45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
@@ -1717,20 +1711,16 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="20"/>
-      <c r="B14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="22">
-        <v>0.98360000000000003</v>
-      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="3"/>
       <c r="F14" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="36"/>
       <c r="H14" s="37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" s="38"/>
       <c r="J14" s="46"/>
@@ -1738,7 +1728,7 @@
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="23">
         <v>100000</v>
@@ -1746,23 +1736,19 @@
       <c r="D15" s="23"/>
       <c r="E15" s="3"/>
       <c r="F15" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="23">
-        <v>98360</v>
-      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="3"/>
       <c r="F16" s="19"/>
@@ -1772,8 +1758,8 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="15.6">
-      <c r="A17" s="99"/>
-      <c r="B17" s="99"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="3"/>
@@ -1784,8 +1770,8 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="99"/>
-      <c r="B18" s="99"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="3"/>
@@ -1809,7 +1795,7 @@
     </row>
     <row r="20" spans="1:10" ht="31.2">
       <c r="A20" s="45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="19"/>
@@ -1836,7 +1822,7 @@
     <row r="22" spans="1:10" ht="31.2">
       <c r="A22" s="19"/>
       <c r="B22" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="28">
         <v>0.17513000000000001</v>
@@ -1852,7 +1838,7 @@
     <row r="23" spans="1:10" ht="31.2">
       <c r="A23" s="19"/>
       <c r="B23" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="23">
         <v>17513</v>
@@ -1909,13 +1895,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="31" t="s">
         <v>21</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>23</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="3"/>
@@ -1955,10 +1941,10 @@
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" s="56"/>
       <c r="D30" s="56"/>
@@ -2006,8 +1992,8 @@
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="96" t="s">
-        <v>24</v>
+      <c r="A34" s="80" t="s">
+        <v>22</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="19"/>
@@ -2020,7 +2006,7 @@
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="96"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -2046,7 +2032,7 @@
     <row r="37" spans="1:10" ht="21">
       <c r="A37" s="19"/>
       <c r="B37" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37" s="32">
         <v>1340</v>
@@ -2062,7 +2048,7 @@
     <row r="38" spans="1:10" ht="21">
       <c r="A38" s="19"/>
       <c r="B38" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="33">
         <v>1279</v>
@@ -2100,8 +2086,8 @@
       <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10" ht="15.6">
-      <c r="A41" s="96" t="s">
-        <v>35</v>
+      <c r="A41" s="80" t="s">
+        <v>33</v>
       </c>
       <c r="B41" s="77"/>
       <c r="C41" s="19"/>
@@ -2114,7 +2100,7 @@
       <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="96"/>
+      <c r="A42" s="80"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -2127,9 +2113,9 @@
     </row>
     <row r="43" spans="1:10" ht="31.5" customHeight="1">
       <c r="A43" s="78"/>
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
       <c r="E43" s="3"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
@@ -2139,9 +2125,9 @@
     </row>
     <row r="44" spans="1:10" ht="21">
       <c r="A44" s="78"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
       <c r="E44" s="3"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -2151,9 +2137,9 @@
     </row>
     <row r="45" spans="1:10" ht="21">
       <c r="A45" s="78"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
       <c r="E45" s="3"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -2163,9 +2149,9 @@
     </row>
     <row r="46" spans="1:10" ht="21">
       <c r="A46" s="78"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2223,7 +2209,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2484,23 +2470,23 @@
       <c r="F72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="21">
+      <c r="A73" s="88" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="92" t="s">
+      <c r="B73" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="90"/>
+      <c r="D73" s="90"/>
+      <c r="E73" s="90"/>
+      <c r="F73" s="90"/>
+      <c r="G73" s="90"/>
+      <c r="H73" s="49" t="s">
         <v>11</v>
-      </c>
-      <c r="B73" s="94" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="94"/>
-      <c r="D73" s="94"/>
-      <c r="E73" s="94"/>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94"/>
-      <c r="H73" s="49" t="s">
-        <v>12</v>
       </c>
       <c r="I73" s="50"/>
       <c r="J73" s="51">
@@ -2508,15 +2494,15 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="93"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="95"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="95"/>
-      <c r="G74" s="95"/>
+      <c r="A74" s="89"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
       <c r="H74" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" s="50"/>
       <c r="J74" s="52">
@@ -2524,15 +2510,15 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="93"/>
-      <c r="B75" s="95"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="95"/>
-      <c r="E75" s="95"/>
-      <c r="F75" s="95"/>
-      <c r="G75" s="95"/>
+      <c r="A75" s="89"/>
+      <c r="B75" s="91"/>
+      <c r="C75" s="91"/>
+      <c r="D75" s="91"/>
+      <c r="E75" s="91"/>
+      <c r="F75" s="91"/>
+      <c r="G75" s="91"/>
       <c r="H75" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I75" s="50"/>
       <c r="J75" s="52">
@@ -2553,7 +2539,7 @@
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1">
       <c r="A77" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -2590,15 +2576,15 @@
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" ht="23.4">
-      <c r="A80" s="90" t="s">
+      <c r="A80" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="90"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="91"/>
+      <c r="B80" s="95"/>
+      <c r="C80" s="95"/>
+      <c r="D80" s="95"/>
+      <c r="E80" s="96"/>
       <c r="F80" s="66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G80" s="67" t="s">
         <v>1</v>
@@ -2624,528 +2610,529 @@
       <c r="J81" s="63"/>
     </row>
     <row r="82" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A82" s="88"/>
-      <c r="B82" s="89"/>
-      <c r="C82" s="89"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="89"/>
+      <c r="A82" s="97"/>
+      <c r="B82" s="98"/>
+      <c r="C82" s="98"/>
+      <c r="D82" s="98"/>
+      <c r="E82" s="98"/>
       <c r="F82" s="68"/>
       <c r="G82" s="68"/>
       <c r="H82" s="68"/>
       <c r="I82" s="69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A83" s="79"/>
-      <c r="B83" s="80"/>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
-      <c r="E83" s="80"/>
+      <c r="A83" s="86"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="87"/>
+      <c r="D83" s="87"/>
+      <c r="E83" s="87"/>
       <c r="F83" s="61"/>
       <c r="G83" s="61"/>
       <c r="H83" s="61"/>
       <c r="I83" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A84" s="81"/>
-      <c r="B84" s="82"/>
-      <c r="C84" s="82"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="82"/>
+      <c r="A84" s="84"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="85"/>
       <c r="F84" s="60"/>
       <c r="G84" s="60"/>
       <c r="H84" s="60"/>
       <c r="I84" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A85" s="79"/>
-      <c r="B85" s="80"/>
-      <c r="C85" s="80"/>
-      <c r="D85" s="80"/>
-      <c r="E85" s="80"/>
+      <c r="A85" s="86"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="87"/>
+      <c r="D85" s="87"/>
+      <c r="E85" s="87"/>
       <c r="F85" s="61"/>
       <c r="G85" s="61"/>
       <c r="H85" s="61"/>
       <c r="I85" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A86" s="81"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="82"/>
-      <c r="D86" s="82"/>
-      <c r="E86" s="82"/>
+      <c r="A86" s="84"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
       <c r="F86" s="60"/>
       <c r="G86" s="60"/>
       <c r="H86" s="60"/>
       <c r="I86" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A87" s="79"/>
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
+      <c r="A87" s="86"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="87"/>
+      <c r="E87" s="87"/>
       <c r="F87" s="61"/>
       <c r="G87" s="61"/>
       <c r="H87" s="61"/>
       <c r="I87" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A88" s="81"/>
-      <c r="B88" s="82"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
       <c r="F88" s="60"/>
       <c r="G88" s="60"/>
       <c r="H88" s="60"/>
       <c r="I88" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A89" s="79"/>
-      <c r="B89" s="80"/>
-      <c r="C89" s="80"/>
-      <c r="D89" s="80"/>
-      <c r="E89" s="80"/>
+      <c r="A89" s="86"/>
+      <c r="B89" s="87"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="87"/>
       <c r="F89" s="61"/>
       <c r="G89" s="61"/>
       <c r="H89" s="61"/>
       <c r="I89" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A90" s="81"/>
-      <c r="B90" s="82"/>
-      <c r="C90" s="82"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="82"/>
+      <c r="A90" s="84"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
       <c r="F90" s="60"/>
       <c r="G90" s="60"/>
       <c r="H90" s="60"/>
       <c r="I90" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A91" s="79"/>
-      <c r="B91" s="80"/>
-      <c r="C91" s="80"/>
-      <c r="D91" s="80"/>
-      <c r="E91" s="80"/>
+      <c r="A91" s="86"/>
+      <c r="B91" s="87"/>
+      <c r="C91" s="87"/>
+      <c r="D91" s="87"/>
+      <c r="E91" s="87"/>
       <c r="F91" s="61"/>
       <c r="G91" s="61"/>
       <c r="H91" s="61"/>
       <c r="I91" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A92" s="81"/>
-      <c r="B92" s="82"/>
-      <c r="C92" s="82"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="82"/>
+      <c r="A92" s="84"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
       <c r="F92" s="60"/>
       <c r="G92" s="60"/>
       <c r="H92" s="60"/>
       <c r="I92" s="72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A93" s="79"/>
-      <c r="B93" s="80"/>
-      <c r="C93" s="80"/>
-      <c r="D93" s="80"/>
-      <c r="E93" s="80"/>
+      <c r="A93" s="86"/>
+      <c r="B93" s="87"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="87"/>
+      <c r="E93" s="87"/>
       <c r="F93" s="61"/>
       <c r="G93" s="61"/>
       <c r="H93" s="61"/>
       <c r="I93" s="73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A94" s="81"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="82"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="82"/>
+      <c r="A94" s="84"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
       <c r="F94" s="60"/>
       <c r="G94" s="60"/>
       <c r="H94" s="60"/>
       <c r="I94" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A95" s="85"/>
-      <c r="B95" s="86"/>
-      <c r="C95" s="86"/>
-      <c r="D95" s="86"/>
-      <c r="E95" s="87"/>
+      <c r="A95" s="99"/>
+      <c r="B95" s="100"/>
+      <c r="C95" s="100"/>
+      <c r="D95" s="100"/>
+      <c r="E95" s="101"/>
       <c r="F95" s="61"/>
       <c r="G95" s="61"/>
       <c r="H95" s="61"/>
       <c r="I95" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A96" s="81"/>
-      <c r="B96" s="82"/>
-      <c r="C96" s="82"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
+      <c r="A96" s="84"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="85"/>
       <c r="F96" s="60"/>
       <c r="G96" s="60"/>
       <c r="H96" s="60"/>
       <c r="I96" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A97" s="79"/>
-      <c r="B97" s="80"/>
-      <c r="C97" s="80"/>
-      <c r="D97" s="80"/>
-      <c r="E97" s="80"/>
+      <c r="A97" s="86"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="87"/>
+      <c r="D97" s="87"/>
+      <c r="E97" s="87"/>
       <c r="F97" s="61"/>
       <c r="G97" s="61"/>
       <c r="H97" s="61"/>
       <c r="I97" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A98" s="81"/>
-      <c r="B98" s="82"/>
-      <c r="C98" s="82"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="82"/>
+      <c r="A98" s="84"/>
+      <c r="B98" s="85"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="85"/>
       <c r="F98" s="60"/>
       <c r="G98" s="60"/>
       <c r="H98" s="60"/>
       <c r="I98" s="72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A99" s="83"/>
-      <c r="B99" s="84"/>
-      <c r="C99" s="84"/>
-      <c r="D99" s="84"/>
-      <c r="E99" s="84"/>
+      <c r="A99" s="93"/>
+      <c r="B99" s="94"/>
+      <c r="C99" s="94"/>
+      <c r="D99" s="94"/>
+      <c r="E99" s="94"/>
       <c r="F99" s="74"/>
       <c r="G99" s="74"/>
       <c r="H99" s="74"/>
       <c r="I99" s="75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A100" s="88"/>
-      <c r="B100" s="89"/>
-      <c r="C100" s="89"/>
-      <c r="D100" s="89"/>
-      <c r="E100" s="89"/>
+      <c r="A100" s="97"/>
+      <c r="B100" s="98"/>
+      <c r="C100" s="98"/>
+      <c r="D100" s="98"/>
+      <c r="E100" s="98"/>
       <c r="F100" s="68"/>
       <c r="G100" s="68"/>
       <c r="H100" s="68"/>
       <c r="I100" s="69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A101" s="79"/>
-      <c r="B101" s="80"/>
-      <c r="C101" s="80"/>
-      <c r="D101" s="80"/>
-      <c r="E101" s="80"/>
+      <c r="A101" s="86"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="87"/>
+      <c r="D101" s="87"/>
+      <c r="E101" s="87"/>
       <c r="F101" s="61"/>
       <c r="G101" s="61"/>
       <c r="H101" s="61"/>
       <c r="I101" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A102" s="81"/>
-      <c r="B102" s="82"/>
-      <c r="C102" s="82"/>
-      <c r="D102" s="82"/>
-      <c r="E102" s="82"/>
+      <c r="A102" s="84"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="85"/>
       <c r="F102" s="60"/>
       <c r="G102" s="60"/>
       <c r="H102" s="60"/>
       <c r="I102" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A103" s="79"/>
-      <c r="B103" s="80"/>
-      <c r="C103" s="80"/>
-      <c r="D103" s="80"/>
-      <c r="E103" s="80"/>
+      <c r="A103" s="86"/>
+      <c r="B103" s="87"/>
+      <c r="C103" s="87"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="87"/>
       <c r="F103" s="61"/>
       <c r="G103" s="61"/>
       <c r="H103" s="61"/>
       <c r="I103" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A104" s="81"/>
-      <c r="B104" s="82"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
+      <c r="A104" s="84"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
       <c r="F104" s="60"/>
       <c r="G104" s="60"/>
       <c r="H104" s="60"/>
       <c r="I104" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A105" s="79"/>
-      <c r="B105" s="80"/>
-      <c r="C105" s="80"/>
-      <c r="D105" s="80"/>
-      <c r="E105" s="80"/>
+      <c r="A105" s="86"/>
+      <c r="B105" s="87"/>
+      <c r="C105" s="87"/>
+      <c r="D105" s="87"/>
+      <c r="E105" s="87"/>
       <c r="F105" s="61"/>
       <c r="G105" s="61"/>
       <c r="H105" s="61"/>
       <c r="I105" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A106" s="81"/>
-      <c r="B106" s="82"/>
-      <c r="C106" s="82"/>
-      <c r="D106" s="82"/>
-      <c r="E106" s="82"/>
+      <c r="A106" s="84"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="85"/>
+      <c r="E106" s="85"/>
       <c r="F106" s="60"/>
       <c r="G106" s="60"/>
       <c r="H106" s="60"/>
       <c r="I106" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A107" s="79"/>
-      <c r="B107" s="80"/>
-      <c r="C107" s="80"/>
-      <c r="D107" s="80"/>
-      <c r="E107" s="80"/>
+      <c r="A107" s="86"/>
+      <c r="B107" s="87"/>
+      <c r="C107" s="87"/>
+      <c r="D107" s="87"/>
+      <c r="E107" s="87"/>
       <c r="F107" s="61"/>
       <c r="G107" s="61"/>
       <c r="H107" s="61"/>
       <c r="I107" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A108" s="81"/>
-      <c r="B108" s="82"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="82"/>
-      <c r="E108" s="82"/>
+      <c r="A108" s="84"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
       <c r="F108" s="60"/>
       <c r="G108" s="60"/>
       <c r="H108" s="60"/>
       <c r="I108" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A109" s="79"/>
-      <c r="B109" s="80"/>
-      <c r="C109" s="80"/>
-      <c r="D109" s="80"/>
-      <c r="E109" s="80"/>
+      <c r="A109" s="86"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="87"/>
+      <c r="D109" s="87"/>
+      <c r="E109" s="87"/>
       <c r="F109" s="61"/>
       <c r="G109" s="61"/>
       <c r="H109" s="61"/>
       <c r="I109" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A110" s="81"/>
-      <c r="B110" s="82"/>
-      <c r="C110" s="82"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="82"/>
+      <c r="A110" s="84"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="85"/>
       <c r="F110" s="60"/>
       <c r="G110" s="60"/>
       <c r="H110" s="60"/>
       <c r="I110" s="72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A111" s="79"/>
-      <c r="B111" s="80"/>
-      <c r="C111" s="80"/>
-      <c r="D111" s="80"/>
-      <c r="E111" s="80"/>
+      <c r="A111" s="86"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="87"/>
+      <c r="D111" s="87"/>
+      <c r="E111" s="87"/>
       <c r="F111" s="61"/>
       <c r="G111" s="61"/>
       <c r="H111" s="61"/>
       <c r="I111" s="73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A112" s="81"/>
-      <c r="B112" s="82"/>
-      <c r="C112" s="82"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="82"/>
+      <c r="A112" s="84"/>
+      <c r="B112" s="85"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="85"/>
       <c r="F112" s="60"/>
       <c r="G112" s="60"/>
       <c r="H112" s="60"/>
       <c r="I112" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A113" s="85"/>
-      <c r="B113" s="86"/>
-      <c r="C113" s="86"/>
-      <c r="D113" s="86"/>
-      <c r="E113" s="87"/>
+      <c r="A113" s="99"/>
+      <c r="B113" s="100"/>
+      <c r="C113" s="100"/>
+      <c r="D113" s="100"/>
+      <c r="E113" s="101"/>
       <c r="F113" s="61"/>
       <c r="G113" s="61"/>
       <c r="H113" s="61"/>
       <c r="I113" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A114" s="81"/>
-      <c r="B114" s="82"/>
-      <c r="C114" s="82"/>
-      <c r="D114" s="82"/>
-      <c r="E114" s="82"/>
+      <c r="A114" s="84"/>
+      <c r="B114" s="85"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="85"/>
       <c r="F114" s="60"/>
       <c r="G114" s="60"/>
       <c r="H114" s="60"/>
       <c r="I114" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A115" s="79"/>
-      <c r="B115" s="80"/>
-      <c r="C115" s="80"/>
-      <c r="D115" s="80"/>
-      <c r="E115" s="80"/>
+      <c r="A115" s="86"/>
+      <c r="B115" s="87"/>
+      <c r="C115" s="87"/>
+      <c r="D115" s="87"/>
+      <c r="E115" s="87"/>
       <c r="F115" s="61"/>
       <c r="G115" s="61"/>
       <c r="H115" s="61"/>
       <c r="I115" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A116" s="81"/>
-      <c r="B116" s="82"/>
-      <c r="C116" s="82"/>
-      <c r="D116" s="82"/>
-      <c r="E116" s="82"/>
+      <c r="A116" s="84"/>
+      <c r="B116" s="85"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
       <c r="F116" s="60"/>
       <c r="G116" s="60"/>
       <c r="H116" s="60"/>
       <c r="I116" s="72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A117" s="83"/>
-      <c r="B117" s="84"/>
-      <c r="C117" s="84"/>
-      <c r="D117" s="84"/>
-      <c r="E117" s="84"/>
+      <c r="A117" s="93"/>
+      <c r="B117" s="94"/>
+      <c r="C117" s="94"/>
+      <c r="D117" s="94"/>
+      <c r="E117" s="94"/>
       <c r="F117" s="74"/>
       <c r="G117" s="74"/>
       <c r="H117" s="74"/>
       <c r="I117" s="75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J117" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:G75"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A98:E98"/>
     <mergeCell ref="A99:E99"/>
@@ -3162,24 +3149,23 @@
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A91:E91"/>
     <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:G75"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/ADSDataDirect.Web/Templates/Tracking1.xlsx
+++ b/ADSDataDirect.Web/Templates/Tracking1.xlsx
@@ -715,7 +715,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -767,9 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="16" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -893,6 +890,9 @@
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="37" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="22" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -961,6 +961,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="37" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1595,91 +1598,91 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="57"/>
+      <c r="G6" s="56"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1" ht="21.9" customHeight="1">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="49" t="s">
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51">
+      <c r="I8" s="49"/>
+      <c r="J8" s="50">
         <v>2665</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A9" s="89"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="49" t="s">
+      <c r="A9" s="91"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="52">
+      <c r="I9" s="49"/>
+      <c r="J9" s="51">
         <v>42901</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A10" s="89"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="49" t="s">
+      <c r="A10" s="91"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="52">
+      <c r="I10" s="49"/>
+      <c r="J10" s="51">
         <v>42901</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.8">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="83"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1"/>
@@ -1694,20 +1697,20 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="35.1" customHeight="1">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="19"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="20"/>
@@ -1715,35 +1718,35 @@
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="46"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="78">
         <v>100000</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="38" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="46"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="24"/>
@@ -1758,8 +1761,8 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="15.6">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="3"/>
@@ -1770,16 +1773,16 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="47"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="44"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="24.9" customHeight="1">
       <c r="A19" s="18"/>
@@ -1787,31 +1790,31 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="47"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="44"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" ht="31.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="44"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10" ht="31.2">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="3"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -1829,27 +1832,27 @@
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="44"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" spans="1:10" ht="31.2">
       <c r="A23" s="19"/>
       <c r="B23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="78">
         <v>17513</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="3"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="43"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="44"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="19"/>
@@ -1876,16 +1879,16 @@
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="29">
+      <c r="A26" s="104">
         <v>2619</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="29">
         <v>2.6190000000000001E-2</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="29">
         <v>0.14954605150459657</v>
       </c>
-      <c r="D26" s="30"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="3"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -1894,16 +1897,16 @@
       <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="3"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -1924,14 +1927,14 @@
       <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="54">
+      <c r="A29" s="53">
         <v>27</v>
       </c>
-      <c r="B29" s="54">
+      <c r="B29" s="53">
         <v>3</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="3"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -1940,14 +1943,14 @@
       <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="3"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -1992,7 +1995,7 @@
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="80" t="s">
+      <c r="A34" s="82" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="26"/>
@@ -2006,7 +2009,7 @@
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="80"/>
+      <c r="A35" s="82"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -2020,8 +2023,8 @@
     <row r="36" spans="1:10" ht="31.2">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="3"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
@@ -2034,10 +2037,10 @@
       <c r="B37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="79">
         <v>1340</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="3"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
@@ -2050,10 +2053,10 @@
       <c r="B38" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="80">
         <v>1279</v>
       </c>
-      <c r="D38" s="33"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="3"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
@@ -2086,10 +2089,10 @@
       <c r="J40" s="19"/>
     </row>
     <row r="41" spans="1:10" ht="15.6">
-      <c r="A41" s="80" t="s">
+      <c r="A41" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="77"/>
+      <c r="B41" s="76"/>
       <c r="C41" s="19"/>
       <c r="D41" s="19"/>
       <c r="E41" s="3"/>
@@ -2100,7 +2103,7 @@
       <c r="J41" s="19"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="80"/>
+      <c r="A42" s="82"/>
       <c r="B42" s="19"/>
       <c r="C42" s="19"/>
       <c r="D42" s="19"/>
@@ -2112,10 +2115,10 @@
       <c r="J42" s="19"/>
     </row>
     <row r="43" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A43" s="78"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
+      <c r="A43" s="77"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
       <c r="E43" s="3"/>
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
@@ -2124,10 +2127,10 @@
       <c r="J43" s="19"/>
     </row>
     <row r="44" spans="1:10" ht="21">
-      <c r="A44" s="78"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="92"/>
+      <c r="A44" s="77"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="94"/>
       <c r="E44" s="3"/>
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
@@ -2136,10 +2139,10 @@
       <c r="J44" s="19"/>
     </row>
     <row r="45" spans="1:10" ht="21">
-      <c r="A45" s="78"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="92"/>
+      <c r="A45" s="77"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="94"/>
       <c r="E45" s="3"/>
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
@@ -2148,10 +2151,10 @@
       <c r="J45" s="19"/>
     </row>
     <row r="46" spans="1:10" ht="21">
-      <c r="A46" s="78"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
+      <c r="A46" s="77"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="94"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -2208,7 +2211,7 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="57" t="s">
         <v>25</v>
       </c>
       <c r="B51" s="9"/>
@@ -2432,7 +2435,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="59"/>
+      <c r="G69" s="58"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
@@ -2444,7 +2447,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="64"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -2456,7 +2459,7 @@
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="64"/>
+      <c r="G71" s="63"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -2469,59 +2472,59 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="I72" s="7"/>
-      <c r="J72" s="76" t="s">
+      <c r="J72" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="88" t="s">
+      <c r="A73" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="90" t="s">
+      <c r="B73" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="90"/>
-      <c r="D73" s="90"/>
-      <c r="E73" s="90"/>
-      <c r="F73" s="90"/>
-      <c r="G73" s="90"/>
-      <c r="H73" s="49" t="s">
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I73" s="50"/>
-      <c r="J73" s="51">
+      <c r="I73" s="49"/>
+      <c r="J73" s="50">
         <v>2665</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="89"/>
-      <c r="B74" s="91"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="91"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="49" t="s">
+      <c r="A74" s="91"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="93"/>
+      <c r="D74" s="93"/>
+      <c r="E74" s="93"/>
+      <c r="F74" s="93"/>
+      <c r="G74" s="93"/>
+      <c r="H74" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I74" s="50"/>
-      <c r="J74" s="52">
+      <c r="I74" s="49"/>
+      <c r="J74" s="51">
         <v>42901</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="89"/>
-      <c r="B75" s="91"/>
-      <c r="C75" s="91"/>
-      <c r="D75" s="91"/>
-      <c r="E75" s="91"/>
-      <c r="F75" s="91"/>
-      <c r="G75" s="91"/>
-      <c r="H75" s="49" t="s">
+      <c r="A75" s="91"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="93"/>
+      <c r="E75" s="93"/>
+      <c r="F75" s="93"/>
+      <c r="G75" s="93"/>
+      <c r="H75" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="50"/>
-      <c r="J75" s="52">
+      <c r="I75" s="49"/>
+      <c r="J75" s="51">
         <v>42901</v>
       </c>
     </row>
@@ -2576,539 +2579,539 @@
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" ht="23.4">
-      <c r="A80" s="95" t="s">
+      <c r="A80" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="95"/>
-      <c r="C80" s="95"/>
-      <c r="D80" s="95"/>
-      <c r="E80" s="96"/>
-      <c r="F80" s="66" t="s">
+      <c r="B80" s="97"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="98"/>
+      <c r="F80" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="67" t="s">
+      <c r="G80" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="H80" s="67" t="s">
+      <c r="H80" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I80" s="66" t="s">
+      <c r="I80" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="J80" s="65"/>
+      <c r="J80" s="64"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="62"/>
-      <c r="B81" s="62"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="62"/>
-      <c r="I81" s="62"/>
-      <c r="J81" s="63"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="62"/>
     </row>
     <row r="82" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A82" s="97"/>
-      <c r="B82" s="98"/>
-      <c r="C82" s="98"/>
-      <c r="D82" s="98"/>
-      <c r="E82" s="98"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
-      <c r="H82" s="68"/>
-      <c r="I82" s="69" t="s">
+      <c r="A82" s="99"/>
+      <c r="B82" s="100"/>
+      <c r="C82" s="100"/>
+      <c r="D82" s="100"/>
+      <c r="E82" s="100"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="68" t="s">
         <v>32</v>
       </c>
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A83" s="86"/>
-      <c r="B83" s="87"/>
-      <c r="C83" s="87"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="87"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="70" t="s">
+      <c r="A83" s="88"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="89"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A84" s="84"/>
-      <c r="B84" s="85"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="85"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="71" t="s">
+      <c r="A84" s="86"/>
+      <c r="B84" s="87"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="87"/>
+      <c r="E84" s="87"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A85" s="86"/>
-      <c r="B85" s="87"/>
-      <c r="C85" s="87"/>
-      <c r="D85" s="87"/>
-      <c r="E85" s="87"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="70" t="s">
+      <c r="A85" s="88"/>
+      <c r="B85" s="89"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="89"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A86" s="84"/>
-      <c r="B86" s="85"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="71" t="s">
+      <c r="A86" s="86"/>
+      <c r="B86" s="87"/>
+      <c r="C86" s="87"/>
+      <c r="D86" s="87"/>
+      <c r="E86" s="87"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A87" s="86"/>
-      <c r="B87" s="87"/>
-      <c r="C87" s="87"/>
-      <c r="D87" s="87"/>
-      <c r="E87" s="87"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="70" t="s">
+      <c r="A87" s="88"/>
+      <c r="B87" s="89"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="89"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A88" s="84"/>
-      <c r="B88" s="85"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="71" t="s">
+      <c r="A88" s="86"/>
+      <c r="B88" s="87"/>
+      <c r="C88" s="87"/>
+      <c r="D88" s="87"/>
+      <c r="E88" s="87"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A89" s="86"/>
-      <c r="B89" s="87"/>
-      <c r="C89" s="87"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="87"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="70" t="s">
+      <c r="A89" s="88"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A90" s="84"/>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="71" t="s">
+      <c r="A90" s="86"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="87"/>
+      <c r="D90" s="87"/>
+      <c r="E90" s="87"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A91" s="86"/>
-      <c r="B91" s="87"/>
-      <c r="C91" s="87"/>
-      <c r="D91" s="87"/>
-      <c r="E91" s="87"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="70" t="s">
+      <c r="A91" s="88"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="89"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A92" s="84"/>
-      <c r="B92" s="85"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="72" t="s">
+      <c r="A92" s="86"/>
+      <c r="B92" s="87"/>
+      <c r="C92" s="87"/>
+      <c r="D92" s="87"/>
+      <c r="E92" s="87"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="71" t="s">
         <v>32</v>
       </c>
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A93" s="86"/>
-      <c r="B93" s="87"/>
-      <c r="C93" s="87"/>
-      <c r="D93" s="87"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="73" t="s">
+      <c r="A93" s="88"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="89"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="72" t="s">
         <v>32</v>
       </c>
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A94" s="84"/>
-      <c r="B94" s="85"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="71" t="s">
+      <c r="A94" s="86"/>
+      <c r="B94" s="87"/>
+      <c r="C94" s="87"/>
+      <c r="D94" s="87"/>
+      <c r="E94" s="87"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A95" s="99"/>
-      <c r="B95" s="100"/>
-      <c r="C95" s="100"/>
-      <c r="D95" s="100"/>
-      <c r="E95" s="101"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="70" t="s">
+      <c r="A95" s="101"/>
+      <c r="B95" s="102"/>
+      <c r="C95" s="102"/>
+      <c r="D95" s="102"/>
+      <c r="E95" s="103"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A96" s="84"/>
-      <c r="B96" s="85"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="60"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="71" t="s">
+      <c r="A96" s="86"/>
+      <c r="B96" s="87"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="87"/>
+      <c r="E96" s="87"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A97" s="86"/>
-      <c r="B97" s="87"/>
-      <c r="C97" s="87"/>
-      <c r="D97" s="87"/>
-      <c r="E97" s="87"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="70" t="s">
+      <c r="A97" s="88"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="89"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A98" s="84"/>
-      <c r="B98" s="85"/>
-      <c r="C98" s="85"/>
-      <c r="D98" s="85"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="72" t="s">
+      <c r="A98" s="86"/>
+      <c r="B98" s="87"/>
+      <c r="C98" s="87"/>
+      <c r="D98" s="87"/>
+      <c r="E98" s="87"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="71" t="s">
         <v>32</v>
       </c>
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A99" s="93"/>
-      <c r="B99" s="94"/>
-      <c r="C99" s="94"/>
-      <c r="D99" s="94"/>
-      <c r="E99" s="94"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="74"/>
-      <c r="H99" s="74"/>
-      <c r="I99" s="75" t="s">
+      <c r="A99" s="95"/>
+      <c r="B99" s="96"/>
+      <c r="C99" s="96"/>
+      <c r="D99" s="96"/>
+      <c r="E99" s="96"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="73"/>
+      <c r="I99" s="74" t="s">
         <v>32</v>
       </c>
       <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A100" s="97"/>
-      <c r="B100" s="98"/>
-      <c r="C100" s="98"/>
-      <c r="D100" s="98"/>
-      <c r="E100" s="98"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="68"/>
-      <c r="H100" s="68"/>
-      <c r="I100" s="69" t="s">
+      <c r="A100" s="99"/>
+      <c r="B100" s="100"/>
+      <c r="C100" s="100"/>
+      <c r="D100" s="100"/>
+      <c r="E100" s="100"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="68" t="s">
         <v>32</v>
       </c>
       <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A101" s="86"/>
-      <c r="B101" s="87"/>
-      <c r="C101" s="87"/>
-      <c r="D101" s="87"/>
-      <c r="E101" s="87"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="61"/>
-      <c r="I101" s="70" t="s">
+      <c r="A101" s="88"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A102" s="84"/>
-      <c r="B102" s="85"/>
-      <c r="C102" s="85"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="85"/>
-      <c r="F102" s="60"/>
-      <c r="G102" s="60"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="71" t="s">
+      <c r="A102" s="86"/>
+      <c r="B102" s="87"/>
+      <c r="C102" s="87"/>
+      <c r="D102" s="87"/>
+      <c r="E102" s="87"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="59"/>
+      <c r="I102" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A103" s="86"/>
-      <c r="B103" s="87"/>
-      <c r="C103" s="87"/>
-      <c r="D103" s="87"/>
-      <c r="E103" s="87"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="61"/>
-      <c r="I103" s="70" t="s">
+      <c r="A103" s="88"/>
+      <c r="B103" s="89"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="89"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A104" s="84"/>
-      <c r="B104" s="85"/>
-      <c r="C104" s="85"/>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="71" t="s">
+      <c r="A104" s="86"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="87"/>
+      <c r="D104" s="87"/>
+      <c r="E104" s="87"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A105" s="86"/>
-      <c r="B105" s="87"/>
-      <c r="C105" s="87"/>
-      <c r="D105" s="87"/>
-      <c r="E105" s="87"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="61"/>
-      <c r="I105" s="70" t="s">
+      <c r="A105" s="88"/>
+      <c r="B105" s="89"/>
+      <c r="C105" s="89"/>
+      <c r="D105" s="89"/>
+      <c r="E105" s="89"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="60"/>
+      <c r="I105" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A106" s="84"/>
-      <c r="B106" s="85"/>
-      <c r="C106" s="85"/>
-      <c r="D106" s="85"/>
-      <c r="E106" s="85"/>
-      <c r="F106" s="60"/>
-      <c r="G106" s="60"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="71" t="s">
+      <c r="A106" s="86"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="87"/>
+      <c r="D106" s="87"/>
+      <c r="E106" s="87"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A107" s="86"/>
-      <c r="B107" s="87"/>
-      <c r="C107" s="87"/>
-      <c r="D107" s="87"/>
-      <c r="E107" s="87"/>
-      <c r="F107" s="61"/>
-      <c r="G107" s="61"/>
-      <c r="H107" s="61"/>
-      <c r="I107" s="70" t="s">
+      <c r="A107" s="88"/>
+      <c r="B107" s="89"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="89"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A108" s="84"/>
-      <c r="B108" s="85"/>
-      <c r="C108" s="85"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="60"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="71" t="s">
+      <c r="A108" s="86"/>
+      <c r="B108" s="87"/>
+      <c r="C108" s="87"/>
+      <c r="D108" s="87"/>
+      <c r="E108" s="87"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A109" s="86"/>
-      <c r="B109" s="87"/>
-      <c r="C109" s="87"/>
-      <c r="D109" s="87"/>
-      <c r="E109" s="87"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="70" t="s">
+      <c r="A109" s="88"/>
+      <c r="B109" s="89"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="89"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="60"/>
+      <c r="I109" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A110" s="84"/>
-      <c r="B110" s="85"/>
-      <c r="C110" s="85"/>
-      <c r="D110" s="85"/>
-      <c r="E110" s="85"/>
-      <c r="F110" s="60"/>
-      <c r="G110" s="60"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="72" t="s">
+      <c r="A110" s="86"/>
+      <c r="B110" s="87"/>
+      <c r="C110" s="87"/>
+      <c r="D110" s="87"/>
+      <c r="E110" s="87"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="59"/>
+      <c r="I110" s="71" t="s">
         <v>32</v>
       </c>
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A111" s="86"/>
-      <c r="B111" s="87"/>
-      <c r="C111" s="87"/>
-      <c r="D111" s="87"/>
-      <c r="E111" s="87"/>
-      <c r="F111" s="61"/>
-      <c r="G111" s="61"/>
-      <c r="H111" s="61"/>
-      <c r="I111" s="73" t="s">
+      <c r="A111" s="88"/>
+      <c r="B111" s="89"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="89"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="60"/>
+      <c r="I111" s="72" t="s">
         <v>32</v>
       </c>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A112" s="84"/>
-      <c r="B112" s="85"/>
-      <c r="C112" s="85"/>
-      <c r="D112" s="85"/>
-      <c r="E112" s="85"/>
-      <c r="F112" s="60"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="71" t="s">
+      <c r="A112" s="86"/>
+      <c r="B112" s="87"/>
+      <c r="C112" s="87"/>
+      <c r="D112" s="87"/>
+      <c r="E112" s="87"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="59"/>
+      <c r="I112" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A113" s="99"/>
-      <c r="B113" s="100"/>
-      <c r="C113" s="100"/>
-      <c r="D113" s="100"/>
-      <c r="E113" s="101"/>
-      <c r="F113" s="61"/>
-      <c r="G113" s="61"/>
-      <c r="H113" s="61"/>
-      <c r="I113" s="70" t="s">
+      <c r="A113" s="101"/>
+      <c r="B113" s="102"/>
+      <c r="C113" s="102"/>
+      <c r="D113" s="102"/>
+      <c r="E113" s="103"/>
+      <c r="F113" s="60"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="60"/>
+      <c r="I113" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A114" s="84"/>
-      <c r="B114" s="85"/>
-      <c r="C114" s="85"/>
-      <c r="D114" s="85"/>
-      <c r="E114" s="85"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="71" t="s">
+      <c r="A114" s="86"/>
+      <c r="B114" s="87"/>
+      <c r="C114" s="87"/>
+      <c r="D114" s="87"/>
+      <c r="E114" s="87"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="59"/>
+      <c r="H114" s="59"/>
+      <c r="I114" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A115" s="86"/>
-      <c r="B115" s="87"/>
-      <c r="C115" s="87"/>
-      <c r="D115" s="87"/>
-      <c r="E115" s="87"/>
-      <c r="F115" s="61"/>
-      <c r="G115" s="61"/>
-      <c r="H115" s="61"/>
-      <c r="I115" s="70" t="s">
+      <c r="A115" s="88"/>
+      <c r="B115" s="89"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="89"/>
+      <c r="E115" s="89"/>
+      <c r="F115" s="60"/>
+      <c r="G115" s="60"/>
+      <c r="H115" s="60"/>
+      <c r="I115" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A116" s="84"/>
-      <c r="B116" s="85"/>
-      <c r="C116" s="85"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="60"/>
-      <c r="G116" s="60"/>
-      <c r="H116" s="60"/>
-      <c r="I116" s="72" t="s">
+      <c r="A116" s="86"/>
+      <c r="B116" s="87"/>
+      <c r="C116" s="87"/>
+      <c r="D116" s="87"/>
+      <c r="E116" s="87"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="59"/>
+      <c r="H116" s="59"/>
+      <c r="I116" s="71" t="s">
         <v>32</v>
       </c>
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A117" s="93"/>
-      <c r="B117" s="94"/>
-      <c r="C117" s="94"/>
-      <c r="D117" s="94"/>
-      <c r="E117" s="94"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="74"/>
-      <c r="H117" s="74"/>
-      <c r="I117" s="75" t="s">
+      <c r="A117" s="95"/>
+      <c r="B117" s="96"/>
+      <c r="C117" s="96"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="96"/>
+      <c r="F117" s="73"/>
+      <c r="G117" s="73"/>
+      <c r="H117" s="73"/>
+      <c r="I117" s="74" t="s">
         <v>32</v>
       </c>
       <c r="J117" s="3"/>
